--- a/ch05/xl/stores.xlsx
+++ b/ch05/xl/stores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/python-for-excel/material/ch05/xl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9208C284-6271-6D4E-8D34-FA2C9B61F678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51633E54-A744-9241-A7C6-F1255DF1AD26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="460" windowWidth="29920" windowHeight="18740" xr2:uid="{DE96EA78-DEDB-0845-B68B-3B0A992487D5}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
   <si>
     <t>San Francisco</t>
   </si>
@@ -90,27 +90,6 @@
     <t>Washington DC</t>
   </si>
   <si>
-    <t>Neriah Fuentes</t>
-  </si>
-  <si>
-    <t>Katelin Johnston</t>
-  </si>
-  <si>
-    <t>Isla-Rae Jensen</t>
-  </si>
-  <si>
-    <t>Zayyan Thorne</t>
-  </si>
-  <si>
-    <t>Saarah Cordova</t>
-  </si>
-  <si>
-    <t>Georgiana Lam</t>
-  </si>
-  <si>
-    <t>Evan Blake</t>
-  </si>
-  <si>
     <t>Store</t>
   </si>
   <si>
@@ -142,13 +121,19 @@
   </si>
   <si>
     <t>Since</t>
+  </si>
+  <si>
+    <t>Zayyan</t>
+  </si>
+  <si>
+    <t>Isla-Rae</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -524,7 +509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -533,24 +518,24 @@
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -558,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>43301</v>
@@ -567,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -575,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>43771</v>
@@ -584,7 +569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -592,13 +577,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>43861</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -606,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>42826</v>
@@ -615,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -623,13 +608,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -637,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>43836</v>
@@ -657,31 +642,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -689,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>43301</v>
@@ -698,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -706,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>43771</v>
@@ -715,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -723,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>43861</v>
@@ -732,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -740,13 +725,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>43922</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -754,13 +739,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -768,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1">
         <v>43836</v>
@@ -788,7 +773,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -796,33 +781,33 @@
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="2:6" s="4" customFormat="1" ht="17" customHeight="1">
+    <row r="2" spans="2:6" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6">
         <v>2019</v>
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -830,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>43301</v>
@@ -839,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -847,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>43771</v>
@@ -856,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -864,13 +849,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>43861</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -878,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>42826</v>
@@ -887,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -895,13 +880,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -909,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>43836</v>
@@ -918,18 +903,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>2020</v>
       </c>
@@ -938,24 +923,24 @@
       <c r="E13" s="4"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -963,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
         <v>43301</v>
@@ -972,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -980,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1">
         <v>43771</v>
@@ -989,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -997,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1">
         <v>43861</v>
@@ -1006,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1014,13 +999,13 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1">
         <v>43922</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -1028,13 +1013,13 @@
         <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1">
         <v>43836</v>
